--- a/tests/fixtures/orderforms/1508.33.balsamic.xlsx
+++ b/tests/fixtures/orderforms/1508.33.balsamic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B6BB46-46FA-C74B-A238-3A37816DDBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E8835B6-3A53-814B-BB00-C685DDE6610A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="849">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -5581,8 +5581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5592,57 +5592,57 @@
     <col min="3" max="16384" width="10.83203125" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="91" t="s">
+    <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="91" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5"/>
     </row>
-    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="164" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="93" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="92" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="92" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="147" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="148" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="95" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="96" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="168" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A16" s="96" t="s">
         <v>602</v>
       </c>
@@ -5900,7 +5900,7 @@
       <c r="A74" s="94"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y2W5z/o3EQJwGgHsnPBOnoM1WkfUBSxzCRSc9r9DtU7jN3FYLdHWg/VpFRvIo4sPJhcLVYBfpRtY3GbdJ0Ln1Q==" saltValue="L+RSgvBGi3JvnrVNU3PelQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HH1PugX67brJCDBMpaRlUTYJUaPjbJ67Fetkvc30gZYlKuQzhzkw9xdkJp6cD0fjBKalnUVSOkZNT625CffBPw==" saltValue="6v/sV1QMsi1vJgblMj4cAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -5919,8 +5919,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -13660,18 +13660,10 @@
       </c>
       <c r="R15" s="74"/>
       <c r="S15" s="73"/>
-      <c r="U15" s="88" t="s">
-        <v>472</v>
-      </c>
-      <c r="V15" s="104" t="s">
-        <v>73</v>
-      </c>
-      <c r="W15" s="65" t="s">
-        <v>724</v>
-      </c>
-      <c r="X15" s="71" t="s">
-        <v>727</v>
-      </c>
+      <c r="U15" s="88"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="71"/>
       <c r="Y15" s="72"/>
       <c r="Z15" s="87"/>
       <c r="AA15" s="74"/>
@@ -14727,12 +14719,8 @@
       <c r="S16" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="U16" s="88" t="s">
-        <v>576</v>
-      </c>
-      <c r="V16" s="104" t="s">
-        <v>84</v>
-      </c>
+      <c r="U16" s="88"/>
+      <c r="V16" s="104"/>
       <c r="W16" s="143"/>
       <c r="X16" s="144"/>
       <c r="Y16" s="72"/>
@@ -15788,12 +15776,8 @@
       <c r="Q17" s="85"/>
       <c r="R17" s="74"/>
       <c r="S17" s="73"/>
-      <c r="U17" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="V17" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="U17" s="88"/>
+      <c r="V17" s="104"/>
       <c r="W17" s="143"/>
       <c r="X17" s="144"/>
       <c r="Y17" s="72"/>
@@ -16849,12 +16833,8 @@
       <c r="Q18" s="85"/>
       <c r="R18" s="74"/>
       <c r="S18" s="73"/>
-      <c r="U18" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="V18" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="U18" s="88"/>
+      <c r="V18" s="104"/>
       <c r="W18" s="143"/>
       <c r="X18" s="144"/>
       <c r="Y18" s="72"/>
@@ -17910,12 +17890,8 @@
       <c r="Q19" s="85"/>
       <c r="R19" s="74"/>
       <c r="S19" s="73"/>
-      <c r="U19" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="V19" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="U19" s="88"/>
+      <c r="V19" s="104"/>
       <c r="W19" s="143"/>
       <c r="X19" s="144"/>
       <c r="Y19" s="72"/>
@@ -18971,12 +18947,8 @@
       <c r="Q20" s="85"/>
       <c r="R20" s="74"/>
       <c r="S20" s="73"/>
-      <c r="U20" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="V20" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="U20" s="88"/>
+      <c r="V20" s="104"/>
       <c r="W20" s="143"/>
       <c r="X20" s="144"/>
       <c r="Y20" s="72"/>
@@ -20032,12 +20004,8 @@
       <c r="Q21" s="85"/>
       <c r="R21" s="74"/>
       <c r="S21" s="73"/>
-      <c r="U21" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="V21" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="U21" s="88"/>
+      <c r="V21" s="104"/>
       <c r="W21" s="143"/>
       <c r="X21" s="144"/>
       <c r="Y21" s="72"/>
@@ -21093,12 +21061,8 @@
       <c r="Q22" s="85"/>
       <c r="R22" s="74"/>
       <c r="S22" s="73"/>
-      <c r="U22" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="V22" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="U22" s="88"/>
+      <c r="V22" s="104"/>
       <c r="W22" s="143"/>
       <c r="X22" s="144"/>
       <c r="Y22" s="72"/>
@@ -22154,12 +22118,8 @@
       <c r="Q23" s="85"/>
       <c r="R23" s="74"/>
       <c r="S23" s="73"/>
-      <c r="U23" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="V23" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="U23" s="88"/>
+      <c r="V23" s="104"/>
       <c r="W23" s="143"/>
       <c r="X23" s="144"/>
       <c r="Y23" s="72"/>
@@ -23215,12 +23175,8 @@
       <c r="Q24" s="85"/>
       <c r="R24" s="74"/>
       <c r="S24" s="73"/>
-      <c r="U24" s="88" t="s">
-        <v>473</v>
-      </c>
-      <c r="V24" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="U24" s="88"/>
+      <c r="V24" s="104"/>
       <c r="W24" s="143"/>
       <c r="X24" s="144"/>
       <c r="Y24" s="72"/>
@@ -24276,12 +24232,8 @@
       <c r="Q25" s="85"/>
       <c r="R25" s="74"/>
       <c r="S25" s="73"/>
-      <c r="U25" s="88" t="s">
-        <v>474</v>
-      </c>
-      <c r="V25" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="U25" s="88"/>
+      <c r="V25" s="104"/>
       <c r="W25" s="143"/>
       <c r="X25" s="144"/>
       <c r="Y25" s="72"/>
@@ -25337,12 +25289,8 @@
       <c r="Q26" s="85"/>
       <c r="R26" s="74"/>
       <c r="S26" s="73"/>
-      <c r="U26" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="V26" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="U26" s="88"/>
+      <c r="V26" s="104"/>
       <c r="W26" s="143"/>
       <c r="X26" s="144"/>
       <c r="Y26" s="72"/>
@@ -26397,14 +26345,12 @@
       <c r="P27" s="70"/>
       <c r="Q27" s="85"/>
       <c r="R27" s="74"/>
-      <c r="S27" s="73"/>
+      <c r="S27" s="73" t="s">
+        <v>85</v>
+      </c>
       <c r="T27"/>
-      <c r="U27" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="V27" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="U27" s="88"/>
+      <c r="V27" s="104"/>
       <c r="W27" s="143"/>
       <c r="X27" s="144"/>
       <c r="Y27" s="72"/>
@@ -26469,13 +26415,11 @@
       <c r="P28" s="70"/>
       <c r="Q28" s="85"/>
       <c r="R28" s="74"/>
-      <c r="S28" s="73"/>
-      <c r="U28" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="V28" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S28" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U28" s="88"/>
+      <c r="V28" s="104"/>
       <c r="W28" s="143"/>
       <c r="X28" s="144"/>
       <c r="Y28" s="72"/>
@@ -27530,13 +27474,11 @@
       <c r="P29" s="70"/>
       <c r="Q29" s="85"/>
       <c r="R29" s="74"/>
-      <c r="S29" s="73"/>
-      <c r="U29" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="V29" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S29" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U29" s="88"/>
+      <c r="V29" s="104"/>
       <c r="W29" s="143"/>
       <c r="X29" s="144"/>
       <c r="Y29" s="72"/>
@@ -28591,13 +28533,11 @@
       <c r="P30" s="70"/>
       <c r="Q30" s="85"/>
       <c r="R30" s="74"/>
-      <c r="S30" s="73"/>
-      <c r="U30" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="V30" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S30" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U30" s="88"/>
+      <c r="V30" s="104"/>
       <c r="W30" s="143"/>
       <c r="X30" s="144"/>
       <c r="Y30" s="72"/>
@@ -29652,13 +29592,11 @@
       <c r="P31" s="70"/>
       <c r="Q31" s="85"/>
       <c r="R31" s="74"/>
-      <c r="S31" s="73"/>
-      <c r="U31" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="V31" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S31" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U31" s="88"/>
+      <c r="V31" s="104"/>
       <c r="W31" s="143"/>
       <c r="X31" s="144"/>
       <c r="Y31" s="72"/>
@@ -30713,13 +30651,11 @@
       <c r="P32" s="70"/>
       <c r="Q32" s="85"/>
       <c r="R32" s="74"/>
-      <c r="S32" s="73"/>
-      <c r="U32" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="V32" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S32" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U32" s="88"/>
+      <c r="V32" s="104"/>
       <c r="W32" s="143"/>
       <c r="X32" s="144"/>
       <c r="Y32" s="72"/>
@@ -31774,13 +31710,11 @@
       <c r="P33" s="70"/>
       <c r="Q33" s="85"/>
       <c r="R33" s="74"/>
-      <c r="S33" s="73"/>
-      <c r="U33" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="V33" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S33" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U33" s="88"/>
+      <c r="V33" s="104"/>
       <c r="W33" s="143"/>
       <c r="X33" s="144"/>
       <c r="Y33" s="72"/>
@@ -32835,13 +32769,11 @@
       <c r="P34" s="70"/>
       <c r="Q34" s="85"/>
       <c r="R34" s="74"/>
-      <c r="S34" s="73"/>
-      <c r="U34" s="88" t="s">
-        <v>155</v>
-      </c>
-      <c r="V34" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S34" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U34" s="88"/>
+      <c r="V34" s="104"/>
       <c r="W34" s="143"/>
       <c r="X34" s="144"/>
       <c r="Y34" s="72"/>
@@ -33896,13 +33828,11 @@
       <c r="P35" s="70"/>
       <c r="Q35" s="85"/>
       <c r="R35" s="74"/>
-      <c r="S35" s="73"/>
-      <c r="U35" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="V35" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S35" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U35" s="88"/>
+      <c r="V35" s="104"/>
       <c r="W35" s="143"/>
       <c r="X35" s="144"/>
       <c r="Y35" s="72"/>
@@ -34957,14 +34887,12 @@
       <c r="P36" s="70"/>
       <c r="Q36" s="85"/>
       <c r="R36" s="74"/>
-      <c r="S36" s="73"/>
+      <c r="S36" s="73" t="s">
+        <v>85</v>
+      </c>
       <c r="T36"/>
-      <c r="U36" s="88" t="s">
-        <v>161</v>
-      </c>
-      <c r="V36" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="U36" s="88"/>
+      <c r="V36" s="104"/>
       <c r="W36" s="143"/>
       <c r="X36" s="144"/>
       <c r="Y36" s="72"/>
@@ -35029,14 +34957,12 @@
       <c r="P37" s="70"/>
       <c r="Q37" s="85"/>
       <c r="R37" s="74"/>
-      <c r="S37" s="73"/>
+      <c r="S37" s="73" t="s">
+        <v>85</v>
+      </c>
       <c r="T37"/>
-      <c r="U37" s="88" t="s">
-        <v>164</v>
-      </c>
-      <c r="V37" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="U37" s="88"/>
+      <c r="V37" s="104"/>
       <c r="W37" s="143"/>
       <c r="X37" s="144"/>
       <c r="Y37" s="72"/>
@@ -35101,14 +35027,12 @@
       <c r="P38" s="70"/>
       <c r="Q38" s="85"/>
       <c r="R38" s="74"/>
-      <c r="S38" s="73"/>
+      <c r="S38" s="73" t="s">
+        <v>85</v>
+      </c>
       <c r="T38"/>
-      <c r="U38" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="V38" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="U38" s="88"/>
+      <c r="V38" s="104"/>
       <c r="W38" s="143"/>
       <c r="X38" s="144"/>
       <c r="Y38" s="72"/>
@@ -35175,13 +35099,11 @@
       <c r="P39" s="70"/>
       <c r="Q39" s="85"/>
       <c r="R39" s="74"/>
-      <c r="S39" s="73"/>
-      <c r="U39" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="V39" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S39" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U39" s="88"/>
+      <c r="V39" s="104"/>
       <c r="W39" s="143"/>
       <c r="X39" s="144"/>
       <c r="Y39" s="72"/>
@@ -36238,13 +36160,11 @@
       <c r="P40" s="70"/>
       <c r="Q40" s="85"/>
       <c r="R40" s="74"/>
-      <c r="S40" s="73"/>
-      <c r="U40" s="88" t="s">
-        <v>461</v>
-      </c>
-      <c r="V40" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S40" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U40" s="88"/>
+      <c r="V40" s="104"/>
       <c r="W40" s="143"/>
       <c r="X40" s="144"/>
       <c r="Y40" s="72"/>
@@ -37301,13 +37221,11 @@
       <c r="P41" s="70"/>
       <c r="Q41" s="85"/>
       <c r="R41" s="74"/>
-      <c r="S41" s="73"/>
-      <c r="U41" s="88" t="s">
-        <v>174</v>
-      </c>
-      <c r="V41" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S41" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U41" s="88"/>
+      <c r="V41" s="104"/>
       <c r="W41" s="143"/>
       <c r="X41" s="144"/>
       <c r="Y41" s="72"/>
@@ -38364,13 +38282,11 @@
       <c r="P42" s="70"/>
       <c r="Q42" s="85"/>
       <c r="R42" s="74"/>
-      <c r="S42" s="73"/>
-      <c r="U42" s="88" t="s">
-        <v>177</v>
-      </c>
-      <c r="V42" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S42" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U42" s="88"/>
+      <c r="V42" s="104"/>
       <c r="W42" s="143"/>
       <c r="X42" s="144"/>
       <c r="Y42" s="72"/>
@@ -39427,13 +39343,11 @@
       <c r="P43" s="70"/>
       <c r="Q43" s="85"/>
       <c r="R43" s="74"/>
-      <c r="S43" s="73"/>
-      <c r="U43" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="V43" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S43" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U43" s="88"/>
+      <c r="V43" s="104"/>
       <c r="W43" s="143"/>
       <c r="X43" s="144"/>
       <c r="Y43" s="72"/>
@@ -40490,13 +40404,11 @@
       <c r="P44" s="70"/>
       <c r="Q44" s="85"/>
       <c r="R44" s="74"/>
-      <c r="S44" s="73"/>
-      <c r="U44" s="88" t="s">
-        <v>187</v>
-      </c>
-      <c r="V44" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S44" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U44" s="88"/>
+      <c r="V44" s="104"/>
       <c r="W44" s="143"/>
       <c r="X44" s="144"/>
       <c r="Y44" s="72"/>
@@ -41553,13 +41465,11 @@
       <c r="P45" s="70"/>
       <c r="Q45" s="85"/>
       <c r="R45" s="74"/>
-      <c r="S45" s="73"/>
-      <c r="U45" s="88" t="s">
-        <v>190</v>
-      </c>
-      <c r="V45" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S45" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U45" s="88"/>
+      <c r="V45" s="104"/>
       <c r="W45" s="143"/>
       <c r="X45" s="144"/>
       <c r="Y45" s="72"/>
@@ -42616,13 +42526,11 @@
       <c r="P46" s="70"/>
       <c r="Q46" s="85"/>
       <c r="R46" s="74"/>
-      <c r="S46" s="73"/>
-      <c r="U46" s="88" t="s">
-        <v>193</v>
-      </c>
-      <c r="V46" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S46" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U46" s="88"/>
+      <c r="V46" s="104"/>
       <c r="W46" s="143"/>
       <c r="X46" s="144"/>
       <c r="Y46" s="72"/>
@@ -43679,13 +43587,11 @@
       <c r="P47" s="70"/>
       <c r="Q47" s="85"/>
       <c r="R47" s="74"/>
-      <c r="S47" s="73"/>
-      <c r="U47" s="88" t="s">
-        <v>196</v>
-      </c>
-      <c r="V47" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S47" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U47" s="88"/>
+      <c r="V47" s="104"/>
       <c r="W47" s="143"/>
       <c r="X47" s="144"/>
       <c r="Y47" s="72"/>
@@ -44742,13 +44648,11 @@
       <c r="P48" s="70"/>
       <c r="Q48" s="85"/>
       <c r="R48" s="74"/>
-      <c r="S48" s="73"/>
-      <c r="U48" s="88" t="s">
-        <v>199</v>
-      </c>
-      <c r="V48" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S48" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U48" s="88"/>
+      <c r="V48" s="104"/>
       <c r="W48" s="143"/>
       <c r="X48" s="144"/>
       <c r="Y48" s="72"/>
@@ -45805,13 +45709,11 @@
       <c r="P49" s="70"/>
       <c r="Q49" s="85"/>
       <c r="R49" s="74"/>
-      <c r="S49" s="73"/>
-      <c r="U49" s="88" t="s">
-        <v>202</v>
-      </c>
-      <c r="V49" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S49" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U49" s="88"/>
+      <c r="V49" s="104"/>
       <c r="W49" s="143"/>
       <c r="X49" s="144"/>
       <c r="Y49" s="72"/>
@@ -46868,14 +46770,12 @@
       <c r="P50" s="70"/>
       <c r="Q50" s="85"/>
       <c r="R50" s="74"/>
-      <c r="S50" s="73"/>
+      <c r="S50" s="73" t="s">
+        <v>85</v>
+      </c>
       <c r="T50"/>
-      <c r="U50" s="88" t="s">
-        <v>580</v>
-      </c>
-      <c r="V50" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="U50" s="88"/>
+      <c r="V50" s="104"/>
       <c r="W50" s="143"/>
       <c r="X50" s="144"/>
       <c r="Y50" s="72"/>
@@ -46942,13 +46842,11 @@
       <c r="P51" s="70"/>
       <c r="Q51" s="85"/>
       <c r="R51" s="74"/>
-      <c r="S51" s="73"/>
-      <c r="U51" s="88" t="s">
-        <v>208</v>
-      </c>
-      <c r="V51" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S51" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U51" s="88"/>
+      <c r="V51" s="104"/>
       <c r="W51" s="143"/>
       <c r="X51" s="144"/>
       <c r="Y51" s="72"/>
@@ -48005,13 +47903,11 @@
       <c r="P52" s="70"/>
       <c r="Q52" s="85"/>
       <c r="R52" s="74"/>
-      <c r="S52" s="73"/>
-      <c r="U52" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="V52" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S52" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U52" s="88"/>
+      <c r="V52" s="104"/>
       <c r="W52" s="143"/>
       <c r="X52" s="144"/>
       <c r="Y52" s="72"/>
@@ -49068,13 +48964,11 @@
       <c r="P53" s="70"/>
       <c r="Q53" s="85"/>
       <c r="R53" s="74"/>
-      <c r="S53" s="73"/>
-      <c r="U53" s="88" t="s">
-        <v>211</v>
-      </c>
-      <c r="V53" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S53" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U53" s="88"/>
+      <c r="V53" s="104"/>
       <c r="W53" s="143"/>
       <c r="X53" s="144"/>
       <c r="Y53" s="72"/>
@@ -50131,13 +50025,11 @@
       <c r="P54" s="70"/>
       <c r="Q54" s="85"/>
       <c r="R54" s="74"/>
-      <c r="S54" s="73"/>
-      <c r="U54" s="88" t="s">
-        <v>215</v>
-      </c>
-      <c r="V54" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S54" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U54" s="88"/>
+      <c r="V54" s="104"/>
       <c r="W54" s="143"/>
       <c r="X54" s="144"/>
       <c r="Y54" s="72"/>
@@ -51194,13 +51086,11 @@
       <c r="P55" s="70"/>
       <c r="Q55" s="85"/>
       <c r="R55" s="74"/>
-      <c r="S55" s="73"/>
-      <c r="U55" s="88" t="s">
-        <v>218</v>
-      </c>
-      <c r="V55" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S55" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U55" s="88"/>
+      <c r="V55" s="104"/>
       <c r="W55" s="143"/>
       <c r="X55" s="144"/>
       <c r="Y55" s="72"/>
@@ -52257,13 +52147,11 @@
       <c r="P56" s="70"/>
       <c r="Q56" s="85"/>
       <c r="R56" s="74"/>
-      <c r="S56" s="73"/>
-      <c r="U56" s="88" t="s">
-        <v>221</v>
-      </c>
-      <c r="V56" s="104" t="s">
-        <v>90</v>
-      </c>
+      <c r="S56" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="U56" s="88"/>
+      <c r="V56" s="104"/>
       <c r="W56" s="143"/>
       <c r="X56" s="144"/>
       <c r="Y56" s="72"/>

--- a/tests/fixtures/orderforms/1508.33.balsamic.xlsx
+++ b/tests/fixtures/orderforms/1508.33.balsamic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E8835B6-3A53-814B-BB00-C685DDE6610A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B49EB9D-E07E-D145-9D5C-430BDDE02473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="850">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3682,6 +3682,9 @@
   </si>
   <si>
     <t>GMCKsolid</t>
+  </si>
+  <si>
+    <t>UDF/Sample Buffer</t>
   </si>
 </sst>
 </file>
@@ -4454,7 +4457,7 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="16" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4923,6 +4926,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -5919,8 +5925,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -12306,9 +12312,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="100"/>
       <c r="R10" s="34"/>
-      <c r="S10" s="108" t="s">
-        <v>713</v>
-      </c>
+      <c r="S10"/>
       <c r="U10" s="102"/>
       <c r="V10" s="32"/>
       <c r="W10" s="37"/>
@@ -13369,8 +13373,8 @@
         <v>28</v>
       </c>
       <c r="R11" s="46"/>
-      <c r="S11" s="108" t="s">
-        <v>713</v>
+      <c r="S11" s="176" t="s">
+        <v>849</v>
       </c>
       <c r="T11"/>
       <c r="U11" s="38" t="s">
@@ -13441,9 +13445,7 @@
       <c r="P12" s="47"/>
       <c r="Q12" s="101"/>
       <c r="R12" s="74"/>
-      <c r="S12" s="108" t="s">
-        <v>713</v>
-      </c>
+      <c r="S12"/>
       <c r="T12"/>
       <c r="U12" s="103"/>
       <c r="V12" s="47"/>
@@ -72306,7 +72308,7 @@
       <c r="AL395" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jwGORLOaFqDkhRWjhEEWIRxpYDG5S952p8rqPPqkNWXUwBwa3tMhgfIJDj8Lu1bgIlIbfZaTf6cX/btXLsOVUQ==" saltValue="1qoAJ52cH2SXgchVkgIfYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="S6zrmYDqQnt4Jwneeo6DqRMr7QJKtTXNTmCpecQfhLuhofzHWHYYsgDpX88RDTgq+g6mrFzaqoep2nKOK73v2g==" saltValue="9rCXVZxSoNy02wwSEd0beg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="AB9:AD9"/>

--- a/tests/fixtures/orderforms/1508.33.balsamic.xlsx
+++ b/tests/fixtures/orderforms/1508.33.balsamic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Documents/Clinical_Genomics/repos/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DA0162F-BF7E-D645-B220-A87160CE58D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2348A04-7F9D-9C4F-91B0-56EEC490EB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-13500" windowWidth="25560" windowHeight="28320" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="851">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -5923,8 +5923,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I37" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -13625,7 +13625,7 @@
         <v>724</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>78</v>
+        <v>606</v>
       </c>
       <c r="G15" s="68" t="s">
         <v>68</v>
@@ -13659,7 +13659,9 @@
         <v>75</v>
       </c>
       <c r="R15" s="74"/>
-      <c r="S15" s="73"/>
+      <c r="S15" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U15" s="88"/>
       <c r="V15" s="102"/>
       <c r="W15" s="65"/>
@@ -15745,7 +15747,7 @@
         <v>730</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>89</v>
+        <v>606</v>
       </c>
       <c r="G17" s="68" t="s">
         <v>79</v>
@@ -15775,7 +15777,9 @@
       <c r="P17" s="70"/>
       <c r="Q17" s="85"/>
       <c r="R17" s="74"/>
-      <c r="S17" s="73"/>
+      <c r="S17" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U17" s="88"/>
       <c r="V17" s="102"/>
       <c r="W17" s="141"/>
@@ -16802,7 +16806,7 @@
         <v>733</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>89</v>
+        <v>606</v>
       </c>
       <c r="G18" s="68" t="s">
         <v>79</v>
@@ -16832,7 +16836,9 @@
       <c r="P18" s="70"/>
       <c r="Q18" s="85"/>
       <c r="R18" s="74"/>
-      <c r="S18" s="73"/>
+      <c r="S18" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U18" s="88"/>
       <c r="V18" s="102"/>
       <c r="W18" s="141"/>
@@ -17859,7 +17865,7 @@
         <v>736</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>453</v>
+        <v>607</v>
       </c>
       <c r="G19" s="68" t="s">
         <v>79</v>
@@ -17889,7 +17895,9 @@
       <c r="P19" s="70"/>
       <c r="Q19" s="85"/>
       <c r="R19" s="74"/>
-      <c r="S19" s="73"/>
+      <c r="S19" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U19" s="88"/>
       <c r="V19" s="102"/>
       <c r="W19" s="141"/>
@@ -18916,7 +18924,7 @@
         <v>739</v>
       </c>
       <c r="F20" s="67" t="s">
-        <v>470</v>
+        <v>607</v>
       </c>
       <c r="G20" s="68" t="s">
         <v>79</v>
@@ -18946,7 +18954,9 @@
       <c r="P20" s="70"/>
       <c r="Q20" s="85"/>
       <c r="R20" s="74"/>
-      <c r="S20" s="73"/>
+      <c r="S20" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U20" s="88"/>
       <c r="V20" s="102"/>
       <c r="W20" s="141"/>
@@ -19973,7 +19983,7 @@
         <v>742</v>
       </c>
       <c r="F21" s="67" t="s">
-        <v>470</v>
+        <v>607</v>
       </c>
       <c r="G21" s="68" t="s">
         <v>79</v>
@@ -20003,7 +20013,9 @@
       <c r="P21" s="70"/>
       <c r="Q21" s="85"/>
       <c r="R21" s="74"/>
-      <c r="S21" s="73"/>
+      <c r="S21" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U21" s="88"/>
       <c r="V21" s="102"/>
       <c r="W21" s="141"/>
@@ -21030,7 +21042,7 @@
         <v>745</v>
       </c>
       <c r="F22" s="67" t="s">
-        <v>454</v>
+        <v>608</v>
       </c>
       <c r="G22" s="68" t="s">
         <v>79</v>
@@ -21060,7 +21072,9 @@
       <c r="P22" s="70"/>
       <c r="Q22" s="85"/>
       <c r="R22" s="74"/>
-      <c r="S22" s="73"/>
+      <c r="S22" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U22" s="88"/>
       <c r="V22" s="102"/>
       <c r="W22" s="141"/>
@@ -22087,7 +22101,7 @@
         <v>748</v>
       </c>
       <c r="F23" s="67" t="s">
-        <v>455</v>
+        <v>607</v>
       </c>
       <c r="G23" s="68" t="s">
         <v>79</v>
@@ -22117,7 +22131,9 @@
       <c r="P23" s="70"/>
       <c r="Q23" s="85"/>
       <c r="R23" s="74"/>
-      <c r="S23" s="73"/>
+      <c r="S23" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U23" s="88"/>
       <c r="V23" s="102"/>
       <c r="W23" s="141"/>
@@ -23144,7 +23160,7 @@
         <v>751</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>471</v>
+        <v>607</v>
       </c>
       <c r="G24" s="68" t="s">
         <v>79</v>
@@ -23174,7 +23190,9 @@
       <c r="P24" s="70"/>
       <c r="Q24" s="85"/>
       <c r="R24" s="74"/>
-      <c r="S24" s="73"/>
+      <c r="S24" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U24" s="88"/>
       <c r="V24" s="102"/>
       <c r="W24" s="141"/>
@@ -24201,7 +24219,7 @@
         <v>754</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>471</v>
+        <v>607</v>
       </c>
       <c r="G25" s="68" t="s">
         <v>79</v>
@@ -24231,7 +24249,9 @@
       <c r="P25" s="70"/>
       <c r="Q25" s="85"/>
       <c r="R25" s="74"/>
-      <c r="S25" s="73"/>
+      <c r="S25" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U25" s="88"/>
       <c r="V25" s="102"/>
       <c r="W25" s="141"/>
@@ -25258,7 +25278,7 @@
         <v>757</v>
       </c>
       <c r="F26" s="67" t="s">
-        <v>456</v>
+        <v>608</v>
       </c>
       <c r="G26" s="68" t="s">
         <v>79</v>
@@ -25288,7 +25308,9 @@
       <c r="P26" s="70"/>
       <c r="Q26" s="85"/>
       <c r="R26" s="74"/>
-      <c r="S26" s="73"/>
+      <c r="S26" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U26" s="88"/>
       <c r="V26" s="102"/>
       <c r="W26" s="141"/>
@@ -72479,7 +72501,7 @@
   <dimension ref="A1:AM313"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/tests/fixtures/orderforms/1508.33.balsamic.xlsx
+++ b/tests/fixtures/orderforms/1508.33.balsamic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Documents/Clinical_Genomics/repos/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2348A04-7F9D-9C4F-91B0-56EEC490EB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9997AFDC-8780-7F46-9F69-0323F61D69C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-13500" windowWidth="25560" windowHeight="28320" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5923,7 +5923,7 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I37" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>

--- a/tests/fixtures/orderforms/1508.33.balsamic.xlsx
+++ b/tests/fixtures/orderforms/1508.33.balsamic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Documents/Clinical_Genomics/repos/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DA0162F-BF7E-D645-B220-A87160CE58D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9997AFDC-8780-7F46-9F69-0323F61D69C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-13500" windowWidth="25560" windowHeight="28320" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="851">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -5923,8 +5923,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -13625,7 +13625,7 @@
         <v>724</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>78</v>
+        <v>606</v>
       </c>
       <c r="G15" s="68" t="s">
         <v>68</v>
@@ -13659,7 +13659,9 @@
         <v>75</v>
       </c>
       <c r="R15" s="74"/>
-      <c r="S15" s="73"/>
+      <c r="S15" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U15" s="88"/>
       <c r="V15" s="102"/>
       <c r="W15" s="65"/>
@@ -15745,7 +15747,7 @@
         <v>730</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>89</v>
+        <v>606</v>
       </c>
       <c r="G17" s="68" t="s">
         <v>79</v>
@@ -15775,7 +15777,9 @@
       <c r="P17" s="70"/>
       <c r="Q17" s="85"/>
       <c r="R17" s="74"/>
-      <c r="S17" s="73"/>
+      <c r="S17" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U17" s="88"/>
       <c r="V17" s="102"/>
       <c r="W17" s="141"/>
@@ -16802,7 +16806,7 @@
         <v>733</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>89</v>
+        <v>606</v>
       </c>
       <c r="G18" s="68" t="s">
         <v>79</v>
@@ -16832,7 +16836,9 @@
       <c r="P18" s="70"/>
       <c r="Q18" s="85"/>
       <c r="R18" s="74"/>
-      <c r="S18" s="73"/>
+      <c r="S18" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U18" s="88"/>
       <c r="V18" s="102"/>
       <c r="W18" s="141"/>
@@ -17859,7 +17865,7 @@
         <v>736</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>453</v>
+        <v>607</v>
       </c>
       <c r="G19" s="68" t="s">
         <v>79</v>
@@ -17889,7 +17895,9 @@
       <c r="P19" s="70"/>
       <c r="Q19" s="85"/>
       <c r="R19" s="74"/>
-      <c r="S19" s="73"/>
+      <c r="S19" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U19" s="88"/>
       <c r="V19" s="102"/>
       <c r="W19" s="141"/>
@@ -18916,7 +18924,7 @@
         <v>739</v>
       </c>
       <c r="F20" s="67" t="s">
-        <v>470</v>
+        <v>607</v>
       </c>
       <c r="G20" s="68" t="s">
         <v>79</v>
@@ -18946,7 +18954,9 @@
       <c r="P20" s="70"/>
       <c r="Q20" s="85"/>
       <c r="R20" s="74"/>
-      <c r="S20" s="73"/>
+      <c r="S20" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U20" s="88"/>
       <c r="V20" s="102"/>
       <c r="W20" s="141"/>
@@ -19973,7 +19983,7 @@
         <v>742</v>
       </c>
       <c r="F21" s="67" t="s">
-        <v>470</v>
+        <v>607</v>
       </c>
       <c r="G21" s="68" t="s">
         <v>79</v>
@@ -20003,7 +20013,9 @@
       <c r="P21" s="70"/>
       <c r="Q21" s="85"/>
       <c r="R21" s="74"/>
-      <c r="S21" s="73"/>
+      <c r="S21" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U21" s="88"/>
       <c r="V21" s="102"/>
       <c r="W21" s="141"/>
@@ -21030,7 +21042,7 @@
         <v>745</v>
       </c>
       <c r="F22" s="67" t="s">
-        <v>454</v>
+        <v>608</v>
       </c>
       <c r="G22" s="68" t="s">
         <v>79</v>
@@ -21060,7 +21072,9 @@
       <c r="P22" s="70"/>
       <c r="Q22" s="85"/>
       <c r="R22" s="74"/>
-      <c r="S22" s="73"/>
+      <c r="S22" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U22" s="88"/>
       <c r="V22" s="102"/>
       <c r="W22" s="141"/>
@@ -22087,7 +22101,7 @@
         <v>748</v>
       </c>
       <c r="F23" s="67" t="s">
-        <v>455</v>
+        <v>607</v>
       </c>
       <c r="G23" s="68" t="s">
         <v>79</v>
@@ -22117,7 +22131,9 @@
       <c r="P23" s="70"/>
       <c r="Q23" s="85"/>
       <c r="R23" s="74"/>
-      <c r="S23" s="73"/>
+      <c r="S23" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U23" s="88"/>
       <c r="V23" s="102"/>
       <c r="W23" s="141"/>
@@ -23144,7 +23160,7 @@
         <v>751</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>471</v>
+        <v>607</v>
       </c>
       <c r="G24" s="68" t="s">
         <v>79</v>
@@ -23174,7 +23190,9 @@
       <c r="P24" s="70"/>
       <c r="Q24" s="85"/>
       <c r="R24" s="74"/>
-      <c r="S24" s="73"/>
+      <c r="S24" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U24" s="88"/>
       <c r="V24" s="102"/>
       <c r="W24" s="141"/>
@@ -24201,7 +24219,7 @@
         <v>754</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>471</v>
+        <v>607</v>
       </c>
       <c r="G25" s="68" t="s">
         <v>79</v>
@@ -24231,7 +24249,9 @@
       <c r="P25" s="70"/>
       <c r="Q25" s="85"/>
       <c r="R25" s="74"/>
-      <c r="S25" s="73"/>
+      <c r="S25" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U25" s="88"/>
       <c r="V25" s="102"/>
       <c r="W25" s="141"/>
@@ -25258,7 +25278,7 @@
         <v>757</v>
       </c>
       <c r="F26" s="67" t="s">
-        <v>456</v>
+        <v>608</v>
       </c>
       <c r="G26" s="68" t="s">
         <v>79</v>
@@ -25288,7 +25308,9 @@
       <c r="P26" s="70"/>
       <c r="Q26" s="85"/>
       <c r="R26" s="74"/>
-      <c r="S26" s="73"/>
+      <c r="S26" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U26" s="88"/>
       <c r="V26" s="102"/>
       <c r="W26" s="141"/>
@@ -72479,7 +72501,7 @@
   <dimension ref="A1:AM313"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
